--- a/prop.xlsx
+++ b/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\servicomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D2F696-99B1-40F8-87F0-684E674A65DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B42CF-18FE-4B90-993F-F79407A7F186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
